--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hgf-Cd44.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hgf-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.9460426141671</v>
+        <v>8.265822</v>
       </c>
       <c r="H2">
-        <v>10.9460426141671</v>
+        <v>24.797466</v>
       </c>
       <c r="I2">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="J2">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N2">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q2">
-        <v>560.7804387538418</v>
+        <v>1976.225227727378</v>
       </c>
       <c r="R2">
-        <v>560.7804387538418</v>
+        <v>17786.0270495464</v>
       </c>
       <c r="S2">
-        <v>0.0505916549244373</v>
+        <v>0.08510467279348043</v>
       </c>
       <c r="T2">
-        <v>0.0505916549244373</v>
+        <v>0.08510467279348043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.9460426141671</v>
+        <v>8.265822</v>
       </c>
       <c r="H3">
-        <v>10.9460426141671</v>
+        <v>24.797466</v>
       </c>
       <c r="I3">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="J3">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N3">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q3">
-        <v>1280.989626503066</v>
+        <v>967.524959938666</v>
       </c>
       <c r="R3">
-        <v>1280.989626503066</v>
+        <v>8707.724639447995</v>
       </c>
       <c r="S3">
-        <v>0.1155664154224798</v>
+        <v>0.04166574435940985</v>
       </c>
       <c r="T3">
-        <v>0.1155664154224798</v>
+        <v>0.04166574435940985</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.9460426141671</v>
+        <v>8.265822</v>
       </c>
       <c r="H4">
-        <v>10.9460426141671</v>
+        <v>24.797466</v>
       </c>
       <c r="I4">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="J4">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N4">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q4">
-        <v>1514.215445667721</v>
+        <v>1414.76842250826</v>
       </c>
       <c r="R4">
-        <v>1514.215445667721</v>
+        <v>12732.91580257434</v>
       </c>
       <c r="S4">
-        <v>0.1366072352286549</v>
+        <v>0.06092595215707048</v>
       </c>
       <c r="T4">
-        <v>0.1366072352286549</v>
+        <v>0.06092595215707048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.9460426141671</v>
+        <v>8.265822</v>
       </c>
       <c r="H5">
-        <v>10.9460426141671</v>
+        <v>24.797466</v>
       </c>
       <c r="I5">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="J5">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N5">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q5">
-        <v>617.066392682488</v>
+        <v>476.903775023496</v>
       </c>
       <c r="R5">
-        <v>617.066392682488</v>
+        <v>4292.133975211464</v>
       </c>
       <c r="S5">
-        <v>0.0556695773366005</v>
+        <v>0.02053750714134149</v>
       </c>
       <c r="T5">
-        <v>0.0556695773366005</v>
+        <v>0.02053750714134149</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.9651248781211</v>
+        <v>11.28595333333333</v>
       </c>
       <c r="H6">
-        <v>18.9651248781211</v>
+        <v>33.85786</v>
       </c>
       <c r="I6">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="J6">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N6">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q6">
-        <v>971.6087745181325</v>
+        <v>2698.290103063825</v>
       </c>
       <c r="R6">
-        <v>971.6087745181325</v>
+        <v>24284.61092757442</v>
       </c>
       <c r="S6">
-        <v>0.08765515421901833</v>
+        <v>0.1161998607755917</v>
       </c>
       <c r="T6">
-        <v>0.08765515421901833</v>
+        <v>0.1161998607755917</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.9651248781211</v>
+        <v>11.28595333333333</v>
       </c>
       <c r="H7">
-        <v>18.9651248781211</v>
+        <v>33.85786</v>
       </c>
       <c r="I7">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="J7">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N7">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q7">
-        <v>2219.44396623902</v>
+        <v>1321.035167065416</v>
       </c>
       <c r="R7">
-        <v>2219.44396623902</v>
+        <v>11889.31650358874</v>
       </c>
       <c r="S7">
-        <v>0.2002304921933579</v>
+        <v>0.0568893990747558</v>
       </c>
       <c r="T7">
-        <v>0.2002304921933579</v>
+        <v>0.0568893990747558</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.9651248781211</v>
+        <v>11.28595333333333</v>
       </c>
       <c r="H8">
-        <v>18.9651248781211</v>
+        <v>33.85786</v>
       </c>
       <c r="I8">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="J8">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N8">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q8">
-        <v>2623.531264376798</v>
+        <v>1931.690567967933</v>
       </c>
       <c r="R8">
-        <v>2623.531264376798</v>
+        <v>17385.2151117114</v>
       </c>
       <c r="S8">
-        <v>0.2366858385891128</v>
+        <v>0.08318682072195564</v>
       </c>
       <c r="T8">
-        <v>0.2366858385891128</v>
+        <v>0.08318682072195564</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.9651248781211</v>
+        <v>11.28595333333333</v>
       </c>
       <c r="H9">
-        <v>18.9651248781211</v>
+        <v>33.85786</v>
       </c>
       <c r="I9">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="J9">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N9">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q9">
-        <v>1069.129877145611</v>
+        <v>651.15287377416</v>
       </c>
       <c r="R9">
-        <v>1069.129877145611</v>
+        <v>5860.375863967441</v>
       </c>
       <c r="S9">
-        <v>0.0964531678996377</v>
+        <v>0.02804141526156505</v>
       </c>
       <c r="T9">
-        <v>0.0964531678996377</v>
+        <v>0.02804141526156505</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.627273758836396</v>
+        <v>19.51551966666667</v>
       </c>
       <c r="H10">
-        <v>0.627273758836396</v>
+        <v>58.546559</v>
       </c>
       <c r="I10">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="J10">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N10">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q10">
-        <v>32.13607566663141</v>
+        <v>4665.847183435169</v>
       </c>
       <c r="R10">
-        <v>32.13607566663141</v>
+        <v>41992.62465091653</v>
       </c>
       <c r="S10">
-        <v>0.002899204641240144</v>
+        <v>0.2009312462361758</v>
       </c>
       <c r="T10">
-        <v>0.002899204641240144</v>
+        <v>0.2009312462361758</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.627273758836396</v>
+        <v>19.51551966666667</v>
       </c>
       <c r="H11">
-        <v>0.627273758836396</v>
+        <v>58.546559</v>
       </c>
       <c r="I11">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="J11">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N11">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q11">
-        <v>73.40837290428833</v>
+        <v>2284.316355188137</v>
       </c>
       <c r="R11">
-        <v>73.40837290428833</v>
+        <v>20558.84719669323</v>
       </c>
       <c r="S11">
-        <v>0.006622647321277885</v>
+        <v>0.09837238855039082</v>
       </c>
       <c r="T11">
-        <v>0.006622647321277885</v>
+        <v>0.09837238855039082</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.627273758836396</v>
+        <v>19.51551966666667</v>
       </c>
       <c r="H12">
-        <v>0.627273758836396</v>
+        <v>58.546559</v>
       </c>
       <c r="I12">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="J12">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N12">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q12">
-        <v>86.77360830504988</v>
+        <v>3340.253512988656</v>
       </c>
       <c r="R12">
-        <v>86.77360830504988</v>
+        <v>30062.28161689791</v>
       </c>
       <c r="S12">
-        <v>0.007828412235050156</v>
+        <v>0.1438455385963672</v>
       </c>
       <c r="T12">
-        <v>0.007828412235050156</v>
+        <v>0.1438455385963672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>19.51551966666667</v>
+      </c>
+      <c r="H13">
+        <v>58.546559</v>
+      </c>
+      <c r="I13">
+        <v>0.4916380138783083</v>
+      </c>
+      <c r="J13">
+        <v>0.4916380138783083</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>57.695868</v>
+      </c>
+      <c r="N13">
+        <v>173.087604</v>
+      </c>
+      <c r="O13">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="P13">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="Q13">
+        <v>1125.964846639404</v>
+      </c>
+      <c r="R13">
+        <v>10133.68361975464</v>
+      </c>
+      <c r="S13">
+        <v>0.04848884049537443</v>
+      </c>
+      <c r="T13">
+        <v>0.04848884049537443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6276006666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.882802</v>
+      </c>
+      <c r="I14">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="J14">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>239.0839323333333</v>
+      </c>
+      <c r="N14">
+        <v>717.251797</v>
+      </c>
+      <c r="O14">
+        <v>0.4086975387666237</v>
+      </c>
+      <c r="P14">
+        <v>0.4086975387666237</v>
+      </c>
+      <c r="Q14">
+        <v>150.0492353216882</v>
+      </c>
+      <c r="R14">
+        <v>1350.443117895194</v>
+      </c>
+      <c r="S14">
+        <v>0.006461758961375751</v>
+      </c>
+      <c r="T14">
+        <v>0.006461758961375751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6276006666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.882802</v>
+      </c>
+      <c r="I15">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="J15">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>117.0512696666667</v>
+      </c>
+      <c r="N15">
+        <v>351.153809</v>
+      </c>
+      <c r="O15">
+        <v>0.2000910950200451</v>
+      </c>
+      <c r="P15">
+        <v>0.2000910950200451</v>
+      </c>
+      <c r="Q15">
+        <v>73.46145487697977</v>
+      </c>
+      <c r="R15">
+        <v>661.153093892818</v>
+      </c>
+      <c r="S15">
+        <v>0.003163563035488608</v>
+      </c>
+      <c r="T15">
+        <v>0.003163563035488608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.627273758836396</v>
-      </c>
-      <c r="H13">
-        <v>0.627273758836396</v>
-      </c>
-      <c r="I13">
-        <v>0.02054046418670096</v>
-      </c>
-      <c r="J13">
-        <v>0.02054046418670096</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>56.3734688812411</v>
-      </c>
-      <c r="N13">
-        <v>56.3734688812411</v>
-      </c>
-      <c r="O13">
-        <v>0.155312945225371</v>
-      </c>
-      <c r="P13">
-        <v>0.155312945225371</v>
-      </c>
-      <c r="Q13">
-        <v>35.36159772378271</v>
-      </c>
-      <c r="R13">
-        <v>35.36159772378271</v>
-      </c>
-      <c r="S13">
-        <v>0.003190199989132781</v>
-      </c>
-      <c r="T13">
-        <v>0.003190199989132781</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6276006666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.882802</v>
+      </c>
+      <c r="I16">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="J16">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>171.15883</v>
+      </c>
+      <c r="N16">
+        <v>513.47649</v>
+      </c>
+      <c r="O16">
+        <v>0.2925842480357353</v>
+      </c>
+      <c r="P16">
+        <v>0.2925842480357353</v>
+      </c>
+      <c r="Q16">
+        <v>107.4193958138867</v>
+      </c>
+      <c r="R16">
+        <v>966.7745623249799</v>
+      </c>
+      <c r="S16">
+        <v>0.004625936560341956</v>
+      </c>
+      <c r="T16">
+        <v>0.004625936560341956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6276006666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.882802</v>
+      </c>
+      <c r="I17">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="J17">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>57.695868</v>
+      </c>
+      <c r="N17">
+        <v>173.087604</v>
+      </c>
+      <c r="O17">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="P17">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="Q17">
+        <v>36.20996522071199</v>
+      </c>
+      <c r="R17">
+        <v>325.889686986408</v>
+      </c>
+      <c r="S17">
+        <v>0.001559355279314912</v>
+      </c>
+      <c r="T17">
+        <v>0.001559355279314912</v>
       </c>
     </row>
   </sheetData>
